--- a/literature/record_oscillations.xlsx
+++ b/literature/record_oscillations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-27360" yWindow="820" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Record of oscillations in the learning literature</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>precise citation on the previous:</t>
+  </si>
+  <si>
+    <t>Clarida, Gali, Gertler 1999</t>
+  </si>
+  <si>
+    <t>p. 1701</t>
+  </si>
+  <si>
+    <t>"… if the rule calls for an overly aggressive response of interest rates to movements in expected inflation. In this instance, there is a 'policy overkill' effect that emerges and may result in an oscillating equilibrium."</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -606,6 +615,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/literature/record_oscillations.xlsx
+++ b/literature/record_oscillations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Record of oscillations in the learning literature</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>"… if the rule calls for an overly aggressive response of interest rates to movements in expected inflation. In this instance, there is a 'policy overkill' effect that emerges and may result in an oscillating equilibrium."</t>
+  </si>
+  <si>
+    <t>Evans Honkapohja 2001</t>
+  </si>
+  <si>
+    <t>p. 41</t>
+  </si>
+  <si>
+    <t>overparameterization of PLM</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,6 +635,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/literature/record_oscillations.xlsx
+++ b/literature/record_oscillations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Record of oscillations in the learning literature</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>overparameterization of PLM</t>
+  </si>
+  <si>
+    <t>Woodford 2011</t>
+  </si>
+  <si>
+    <t>p. 531</t>
+  </si>
+  <si>
+    <t>"a policy of strongly responding to variations in expected inflation as a way of preventing such fluctuations can be counterproductive, as it may actually enable instability of inflation due to self-fulfilling expectations. (See also Proposition 7.13.)"</t>
   </si>
 </sst>
 </file>
@@ -171,26 +180,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,17 +536,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="67.83203125" customWidth="1"/>
+    <col min="3" max="3" width="105.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -540,24 +556,25 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -568,7 +585,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -579,7 +596,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -590,7 +607,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -601,11 +618,11 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -624,14 +641,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -642,8 +659,19 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/literature/record_oscillations.xlsx
+++ b/literature/record_oscillations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Record of oscillations in the learning literature</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>"a policy of strongly responding to variations in expected inflation as a way of preventing such fluctuations can be counterproductive, as it may actually enable instability of inflation due to self-fulfilling expectations. (See also Proposition 7.13.)"</t>
+  </si>
+  <si>
+    <t>Branch 2004 restricted</t>
+  </si>
+  <si>
+    <t>p.4</t>
+  </si>
+  <si>
+    <t>"negative feedback from expectations. This particular self-referential feature generates expectations driven oscillations."</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -674,6 +683,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/literature/record_oscillations.xlsx
+++ b/literature/record_oscillations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="820" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Record of oscillations in the learning literature</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>"negative feedback from expectations. This particular self-referential feature generates expectations driven oscillations."</t>
+  </si>
+  <si>
+    <t>Hommes 2019/20 JEL</t>
+  </si>
+  <si>
+    <t>oscillation under positive feedback</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -694,6 +700,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
